--- a/数据整理/stocks/A股/上证主板/601166-兴业银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601166-兴业银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -96787,7 +96788,6 @@
           <t>华泰柏瑞量化增强混合H</t>
         </is>
       </c>
-      <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
           <t>91.13</t>
@@ -97055,6 +97055,106 @@
       </c>
       <c r="H485" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>484</v>
+      </c>
+      <c r="D2" t="n">
+        <v>196.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>572</v>
+      </c>
+      <c r="D3" t="n">
+        <v>247.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>838</v>
+      </c>
+      <c r="D4" t="n">
+        <v>341.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>647</v>
+      </c>
+      <c r="D5" t="n">
+        <v>210.04</v>
       </c>
     </row>
   </sheetData>
